--- a/现金流量表/688658.xlsx
+++ b/现金流量表/688658.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,54 +739,54 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>131727287.49</v>
+        <v>214805333.33</v>
       </c>
       <c r="P2" t="n">
-        <v>108.4546220015</v>
+        <v>116.2797548748</v>
       </c>
       <c r="Q2" t="n">
-        <v>2038197434.15</v>
+        <v>2590629118.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1678.1028175492</v>
+        <v>1402.3754167328</v>
       </c>
       <c r="S2" t="n">
-        <v>139388308.22</v>
+        <v>229224350.34</v>
       </c>
       <c r="T2" t="n">
-        <v>114.7621466097</v>
+        <v>124.0851465635</v>
       </c>
       <c r="U2" t="n">
-        <v>-91403893.31999999</v>
+        <v>471520003.25</v>
       </c>
       <c r="V2" t="n">
-        <v>-75.25528604110001</v>
+        <v>255.2461316789</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>27403839.44</v>
+        <v>105282103.12</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.5623187457</v>
+        <v>56.9919608313</v>
       </c>
       <c r="AA2" t="n">
-        <v>-161834816.52</v>
+        <v>-501603581.52</v>
       </c>
       <c r="AB2" t="n">
-        <v>-133.2429611722</v>
+        <v>-271.5311607923</v>
       </c>
       <c r="AC2" t="n">
-        <v>-121458435.85</v>
+        <v>184731498.24</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>

--- a/现金流量表/688658.xlsx
+++ b/现金流量表/688658.xlsx
@@ -744,51 +744,53 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>214805333.33</v>
+        <v>192701973.1</v>
       </c>
       <c r="P2" t="n">
-        <v>116.2797548748</v>
+        <v>76.379704512</v>
       </c>
       <c r="Q2" t="n">
-        <v>2590629118.28</v>
+        <v>3804380968.99</v>
       </c>
       <c r="R2" t="n">
-        <v>1402.3754167328</v>
+        <v>1507.9113596402</v>
       </c>
       <c r="S2" t="n">
-        <v>229224350.34</v>
+        <v>260985242.72</v>
       </c>
       <c r="T2" t="n">
-        <v>124.0851465635</v>
+        <v>103.4445854408</v>
       </c>
       <c r="U2" t="n">
-        <v>471520003.25</v>
+        <v>-24498727.74</v>
       </c>
       <c r="V2" t="n">
-        <v>255.2461316789</v>
+        <v>-9.7103602812</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>105282103.12</v>
+        <v>173829894.31</v>
       </c>
       <c r="Z2" t="n">
-        <v>56.9919608313</v>
+        <v>68.89953304140001</v>
       </c>
       <c r="AA2" t="n">
-        <v>-501603581.52</v>
+        <v>-420581906.02</v>
       </c>
       <c r="AB2" t="n">
-        <v>-271.5311607923</v>
+        <v>-166.7026091541</v>
       </c>
       <c r="AC2" t="n">
-        <v>184731498.24</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>-252294735.01</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-236.5737502341</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688658.xlsx
+++ b/现金流量表/688658.xlsx
@@ -744,52 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>192701973.1</v>
+        <v>324936160.74</v>
       </c>
       <c r="P2" t="n">
-        <v>76.379704512</v>
+        <v>236.0770224988</v>
       </c>
       <c r="Q2" t="n">
-        <v>3804380968.99</v>
+        <v>4290675235.13</v>
       </c>
       <c r="R2" t="n">
-        <v>1507.9113596402</v>
+        <v>3117.3195119682</v>
       </c>
       <c r="S2" t="n">
-        <v>260985242.72</v>
+        <v>269794927.13</v>
       </c>
       <c r="T2" t="n">
-        <v>103.4445854408</v>
+        <v>196.0150662736</v>
       </c>
       <c r="U2" t="n">
-        <v>-24498727.74</v>
+        <v>-179574977.19</v>
       </c>
       <c r="V2" t="n">
-        <v>-9.7103602812</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-130.4672457315</v>
+      </c>
+      <c r="W2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.072653355</v>
+      </c>
       <c r="Y2" t="n">
-        <v>173829894.31</v>
+        <v>148009464.97</v>
       </c>
       <c r="Z2" t="n">
-        <v>68.89953304140001</v>
+        <v>107.5338420697</v>
       </c>
       <c r="AA2" t="n">
-        <v>-420581906.02</v>
+        <v>-7738060.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>-166.7026091541</v>
+        <v>-5.6219605243</v>
       </c>
       <c r="AC2" t="n">
-        <v>-252294735.01</v>
+        <v>137639892.82</v>
       </c>
       <c r="AD2" t="n">
-        <v>-236.5737502341</v>
+        <v>154.5551982345</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
